--- a/temp_doc/mou_kerjasama.xlsx
+++ b/temp_doc/mou_kerjasama.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bkk/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF41A183-7C5B-774D-8AAE-3DDD74120F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F0C5B5-482B-6D43-AD9C-2A347C737DF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FA11D654-5B53-EF40-A609-39FD807C2D3F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19940" xr2:uid="{FA11D654-5B53-EF40-A609-39FD807C2D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="35">
   <si>
     <t>id_perusahaan</t>
   </si>
@@ -138,13 +138,16 @@
   </si>
   <si>
     <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1ulwplFCWXBxCiYdRBVw5rsBWGsHoTqoa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,14 +161,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,17 +180,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,7 +524,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +558,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -975,38 +968,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{9CC5DD6A-003F-CE4F-861D-28E6D5A6A25D}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{E9CFADC6-37BF-C145-8B4D-A366BAE9B742}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{167F74AF-69FF-4246-B276-65E65309FFF4}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{06B13850-30AF-1F4E-982C-81D26622C9BE}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{3CB3D439-0BE5-3349-9F73-8EDEA8F79BB1}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{8ADA06F8-A3C9-494A-90C2-9A70602BB7E5}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{A55FA864-50AB-EB4F-85AA-1959BE07272A}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{43AB7CDB-B226-8942-8D85-C89FA3853DB2}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{E767FDDE-1C8B-BA4D-939A-3DF578418013}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{CEF93BF0-9C12-DC4A-93EC-526F7263EA1B}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{71CAB844-5B9F-0D4C-A7E7-65DD97E3B71E}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{5EE4BBC6-E871-C641-AB28-03123102ADCA}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{56D4AF54-7968-E648-9908-736FF5803BA3}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{D688D542-1845-D843-ADC8-30A1280D8B9E}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{2C200377-9983-9E47-8DBF-1A6EECE9B3CB}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{16F99F5C-4FFF-BF43-B393-2AE4E27C1394}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{6DF64D45-D14C-6C4E-BDD4-67F7BAF13E67}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{61A079D0-E9BE-814C-A34F-B2DB7D5CD394}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{86C87ECC-A031-494E-B24F-66319417B459}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{4A7A88BC-CF74-7E46-84FB-744A614D6700}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{E1756B6C-10BE-9743-8B9A-C034D6A8F57D}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{20221A8F-31F2-1742-98E0-62DC863F82B2}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{E2CDC495-C3B9-FE4E-A403-DDC16B538991}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{9E7DC9A0-3E92-9640-8F9A-66B9EFEA1881}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{08D5ECE5-1FC6-D94E-B0E9-88E95575AC26}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{0BE5BF32-B07F-6749-A1E1-9C2AB1797757}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{8FD4B1F5-410C-7743-8CB9-905B311CA942}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{A06919EE-4D4E-BC4A-8CED-2658EF34A6AA}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{D190088B-D866-CC47-A4E3-4DA8759C5BC3}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{DFE0FEC4-A0D4-094B-891A-542A83BDB9F9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>